--- a/database/industries/darou/dekapsul/cost/quarterly.xlsx
+++ b/database/industries/darou/dekapsul/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\darou\dekapsul\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dekapsul\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4090BE-83C6-4C1B-B29A-D6D271AD354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دکپسول-تولید ژلاتین کپسول ایران</t>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -48,6 +46,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -99,34 +100,67 @@
     <t>عدد</t>
   </si>
   <si>
+    <t>پودر ژلاتین</t>
+  </si>
+  <si>
+    <t>گرم</t>
+  </si>
+  <si>
+    <t>اقلام بسته بندی</t>
+  </si>
+  <si>
+    <t>کیلوگرم</t>
+  </si>
+  <si>
+    <t>سایر مواد کمکی</t>
+  </si>
+  <si>
+    <t>مقدار خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>عدد / ریال</t>
+  </si>
+  <si>
+    <t>گرم / ریال</t>
+  </si>
+  <si>
+    <t>کیلوگرم / ریال</t>
+  </si>
+  <si>
+    <t>نرخ خرید طی دوره</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>مواد اولیه و بسته بندی  - عدد</t>
-  </si>
-  <si>
-    <t>پودر ژلاتین</t>
-  </si>
-  <si>
-    <t>گرم</t>
-  </si>
-  <si>
-    <t>اقلام بسته بندی</t>
-  </si>
-  <si>
-    <t>کیلوگرم</t>
-  </si>
-  <si>
-    <t>سایر مواد کمکی</t>
-  </si>
-  <si>
-    <t>مقدار خرید طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار موجودی پایان دوره</t>
+    <t>نرخ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی پایان دوره</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -221,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,7 +425,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -403,7 +437,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -450,6 +484,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -485,6 +536,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -636,17 +704,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -656,7 +724,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +736,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -680,7 +748,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +758,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -702,7 +770,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -714,7 +782,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -724,7 +792,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -746,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -756,95 +824,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>315874</v>
+        <v>311538</v>
       </c>
       <c r="F10" s="9">
-        <v>311538</v>
+        <v>267512</v>
       </c>
       <c r="G10" s="9">
-        <v>267512</v>
+        <v>370793</v>
       </c>
       <c r="H10" s="9">
-        <v>370793</v>
+        <v>294100</v>
       </c>
       <c r="I10" s="9">
-        <v>294100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>428008</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>47094</v>
+        <v>48385</v>
       </c>
       <c r="F11" s="11">
-        <v>48385</v>
+        <v>52040</v>
       </c>
       <c r="G11" s="11">
-        <v>52040</v>
+        <v>82899</v>
       </c>
       <c r="H11" s="11">
-        <v>82899</v>
+        <v>69106</v>
       </c>
       <c r="I11" s="11">
-        <v>69106</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>59400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>74274</v>
+        <v>73719</v>
       </c>
       <c r="F12" s="9">
-        <v>73719</v>
+        <v>97307</v>
       </c>
       <c r="G12" s="9">
-        <v>97307</v>
+        <v>118008</v>
       </c>
       <c r="H12" s="9">
-        <v>118008</v>
+        <v>113156</v>
       </c>
       <c r="I12" s="9">
-        <v>113156</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>127260</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>437242</v>
+        <v>433642</v>
       </c>
       <c r="F13" s="13">
-        <v>433642</v>
+        <v>416859</v>
       </c>
       <c r="G13" s="13">
-        <v>416859</v>
+        <v>571700</v>
       </c>
       <c r="H13" s="13">
-        <v>571700</v>
+        <v>476362</v>
       </c>
       <c r="I13" s="13">
-        <v>476362</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>614668</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -866,95 +934,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>437242</v>
+        <v>433642</v>
       </c>
       <c r="F15" s="13">
-        <v>433642</v>
+        <v>416859</v>
       </c>
       <c r="G15" s="13">
-        <v>416859</v>
+        <v>571700</v>
       </c>
       <c r="H15" s="13">
-        <v>571700</v>
+        <v>476362</v>
       </c>
       <c r="I15" s="13">
-        <v>476362</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>614668</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-439</v>
+        <v>-1065</v>
       </c>
       <c r="F16" s="9">
-        <v>-1065</v>
+        <v>16266</v>
       </c>
       <c r="G16" s="9">
-        <v>16266</v>
+        <v>-22004</v>
       </c>
       <c r="H16" s="9">
-        <v>-22004</v>
+        <v>-4261</v>
       </c>
       <c r="I16" s="9">
-        <v>-4261</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26265</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-2647</v>
+        <v>-1734</v>
       </c>
       <c r="F17" s="11">
-        <v>-1734</v>
+        <v>-3882</v>
       </c>
       <c r="G17" s="11">
-        <v>-3882</v>
+        <v>-1788</v>
       </c>
       <c r="H17" s="11">
-        <v>-1788</v>
+        <v>-2709</v>
       </c>
       <c r="I17" s="11">
-        <v>-2709</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-295</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>434156</v>
+        <v>430843</v>
       </c>
       <c r="F18" s="15">
-        <v>430843</v>
+        <v>429243</v>
       </c>
       <c r="G18" s="15">
-        <v>429243</v>
+        <v>547908</v>
       </c>
       <c r="H18" s="15">
-        <v>547908</v>
+        <v>469392</v>
       </c>
       <c r="I18" s="15">
-        <v>469392</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>640638</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -964,63 +1032,63 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>7524</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>85352</v>
       </c>
       <c r="H19" s="11">
-        <v>85352</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7603</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>8670</v>
+        <v>7524</v>
       </c>
       <c r="F20" s="9">
-        <v>7524</v>
+        <v>-85352</v>
       </c>
       <c r="G20" s="9">
-        <v>-47721</v>
+        <v>-83369</v>
       </c>
       <c r="H20" s="9">
-        <v>-83369</v>
+        <v>7603</v>
       </c>
       <c r="I20" s="9">
-        <v>7603</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-102380</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>442826</v>
+        <v>438367</v>
       </c>
       <c r="F21" s="13">
-        <v>438367</v>
+        <v>381522</v>
       </c>
       <c r="G21" s="13">
-        <v>381522</v>
+        <v>549891</v>
       </c>
       <c r="H21" s="13">
-        <v>549891</v>
+        <v>476995</v>
       </c>
       <c r="I21" s="13">
-        <v>476995</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>614024</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1042,29 +1110,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>442826</v>
+        <v>438367</v>
       </c>
       <c r="F23" s="13">
-        <v>438367</v>
+        <v>381522</v>
       </c>
       <c r="G23" s="13">
-        <v>381522</v>
+        <v>549891</v>
       </c>
       <c r="H23" s="13">
-        <v>549891</v>
+        <v>476995</v>
       </c>
       <c r="I23" s="13">
-        <v>476995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>614024</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1074,7 +1142,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1084,7 +1152,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1094,7 +1162,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1116,7 +1184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1126,7 +1194,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1134,47 +1202,47 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="9">
+        <v>42425</v>
+      </c>
+      <c r="F29" s="9">
+        <v>59242</v>
+      </c>
+      <c r="G29" s="9">
+        <v>34321</v>
+      </c>
+      <c r="H29" s="9">
+        <v>64523</v>
+      </c>
+      <c r="I29" s="9">
+        <v>24323</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="9">
-        <v>34321</v>
-      </c>
-      <c r="I29" s="9">
-        <v>64523</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>407591576</v>
       </c>
       <c r="F30" s="11">
-        <v>42425</v>
+        <v>413107400</v>
       </c>
       <c r="G30" s="11">
-        <v>59242</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>330716300</v>
+      </c>
+      <c r="H30" s="11">
+        <v>308566300</v>
+      </c>
+      <c r="I30" s="11">
+        <v>345960393</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1183,106 +1251,92 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>315262400</v>
+        <v>15616</v>
       </c>
       <c r="F31" s="9">
-        <v>407591576</v>
+        <v>10285</v>
       </c>
       <c r="G31" s="9">
-        <v>413107400</v>
+        <v>26330</v>
       </c>
       <c r="H31" s="9">
-        <v>330716300</v>
+        <v>20043</v>
       </c>
       <c r="I31" s="9">
-        <v>308566300</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15520</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>30704</v>
+        <v>15616</v>
       </c>
       <c r="F32" s="11">
-        <v>15616</v>
+        <v>26425156</v>
       </c>
       <c r="G32" s="11">
-        <v>10285</v>
+        <v>19411637</v>
       </c>
       <c r="H32" s="11">
-        <v>26330</v>
+        <v>13981984</v>
       </c>
       <c r="I32" s="11">
-        <v>20043</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9">
-        <v>24599483</v>
-      </c>
-      <c r="F33" s="9">
-        <v>15616</v>
-      </c>
-      <c r="G33" s="9">
-        <v>26425156</v>
-      </c>
-      <c r="H33" s="9">
-        <v>19411637</v>
-      </c>
-      <c r="I33" s="9">
-        <v>13981984</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34364802</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15">
+        <v>24628924</v>
+      </c>
+      <c r="F33" s="15">
+        <v>439602083</v>
+      </c>
+      <c r="G33" s="15">
+        <v>350188588</v>
+      </c>
+      <c r="H33" s="15">
+        <v>322632850</v>
+      </c>
+      <c r="I33" s="15">
+        <v>380365038</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>339892587</v>
-      </c>
-      <c r="F34" s="13">
-        <v>24628924</v>
-      </c>
-      <c r="G34" s="13">
-        <v>439602083</v>
-      </c>
-      <c r="H34" s="13">
-        <v>350188588</v>
-      </c>
-      <c r="I34" s="13">
-        <v>322632850</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15">
         <v>432294157</v>
       </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1292,7 +1346,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1302,205 +1356,191 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I38" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>73394</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9">
+        <v>57882</v>
+      </c>
+      <c r="F40" s="9">
+        <v>22468</v>
+      </c>
+      <c r="G40" s="9">
+        <v>80923</v>
+      </c>
+      <c r="H40" s="9">
+        <v>4631</v>
+      </c>
+      <c r="I40" s="9">
+        <v>88972</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="9">
-        <v>80923</v>
-      </c>
-      <c r="I41" s="9">
-        <v>4631</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="11">
-        <v>57882</v>
-      </c>
-      <c r="G42" s="11">
-        <v>22468</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11">
+        <v>165627655</v>
+      </c>
+      <c r="F41" s="11">
+        <v>25087181</v>
+      </c>
+      <c r="G41" s="11">
+        <v>144207581</v>
+      </c>
+      <c r="H41" s="11">
+        <v>156780062</v>
+      </c>
+      <c r="I41" s="11">
+        <v>140507357</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9">
-        <v>235518345</v>
-      </c>
-      <c r="F43" s="9">
-        <v>165627655</v>
-      </c>
-      <c r="G43" s="9">
-        <v>25087181</v>
-      </c>
-      <c r="H43" s="9">
-        <v>144207581</v>
-      </c>
-      <c r="I43" s="9">
-        <v>156780062</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
+      <c r="D42" s="9"/>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
+        <v>21237</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11">
-        <v>5061</v>
-      </c>
-      <c r="F44" s="11">
-        <v>0</v>
-      </c>
-      <c r="G44" s="11">
-        <v>21237</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9">
-        <v>7830600</v>
-      </c>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
+      <c r="C43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
         <v>7647005</v>
       </c>
-      <c r="H45" s="9">
+      <c r="G43" s="11">
         <v>1510500</v>
       </c>
-      <c r="I45" s="9">
+      <c r="H43" s="11">
         <v>26820500</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="12" t="s">
+      <c r="I43" s="11">
+        <v>5004500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13">
-        <v>243427400</v>
-      </c>
-      <c r="F46" s="13">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15">
         <v>-468617</v>
       </c>
-      <c r="G46" s="13">
+      <c r="F44" s="15">
         <v>32777891</v>
       </c>
-      <c r="H46" s="13">
+      <c r="G44" s="15">
         <v>145799004</v>
       </c>
-      <c r="I46" s="13">
+      <c r="H44" s="15">
         <v>183605193</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
+      <c r="I44" s="15">
+        <v>145600829</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13">
         <v>165216920</v>
       </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1510,17 +1550,29 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1530,205 +1582,191 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9">
+        <v>41065</v>
+      </c>
+      <c r="F51" s="9">
+        <v>47389</v>
+      </c>
+      <c r="G51" s="9">
+        <v>50721</v>
+      </c>
+      <c r="H51" s="9">
+        <v>44831</v>
+      </c>
+      <c r="I51" s="9">
+        <v>46018</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11">
+        <v>160111831</v>
+      </c>
+      <c r="F52" s="11">
+        <v>107478281</v>
+      </c>
+      <c r="G52" s="11">
+        <v>166357581</v>
+      </c>
+      <c r="H52" s="11">
+        <v>119385969</v>
+      </c>
+      <c r="I52" s="11">
+        <v>142731750</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>94512</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>26</v>
+        <v>5331</v>
+      </c>
+      <c r="F53" s="9">
+        <v>5192</v>
+      </c>
+      <c r="G53" s="9">
+        <v>6287</v>
       </c>
       <c r="H53" s="9">
-        <v>50721</v>
+        <v>4523</v>
       </c>
       <c r="I53" s="9">
-        <v>44831</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5167</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>26</v>
+      <c r="E54" s="11">
+        <v>5331</v>
       </c>
       <c r="F54" s="11">
-        <v>41065</v>
+        <v>14660524</v>
       </c>
       <c r="G54" s="11">
-        <v>47389</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9">
-        <v>143189169</v>
-      </c>
-      <c r="F55" s="9">
-        <v>160111831</v>
-      </c>
-      <c r="G55" s="9">
-        <v>107478281</v>
-      </c>
-      <c r="H55" s="9">
-        <v>166357581</v>
-      </c>
-      <c r="I55" s="9">
-        <v>119385969</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11">
-        <v>-43034</v>
-      </c>
-      <c r="F56" s="11">
-        <v>5331</v>
-      </c>
-      <c r="G56" s="11">
-        <v>5192</v>
-      </c>
-      <c r="H56" s="11">
-        <v>6287</v>
-      </c>
-      <c r="I56" s="11">
-        <v>4523</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>7705559</v>
-      </c>
-      <c r="F57" s="9">
-        <v>5331</v>
-      </c>
-      <c r="G57" s="9">
-        <v>14660524</v>
-      </c>
-      <c r="H57" s="9">
         <v>6940153</v>
       </c>
-      <c r="I57" s="9">
+      <c r="H54" s="11">
         <v>6437682</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="12" t="s">
+      <c r="I54" s="11">
+        <v>6671516</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13">
-        <v>150946206</v>
-      </c>
-      <c r="F58" s="13">
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15">
         <v>-2264849</v>
       </c>
-      <c r="G58" s="13">
+      <c r="F55" s="15">
         <v>122191386</v>
       </c>
-      <c r="H58" s="13">
+      <c r="G55" s="15">
         <v>173354742</v>
       </c>
-      <c r="I58" s="13">
+      <c r="H55" s="15">
         <v>125873005</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="14" t="s">
+      <c r="I55" s="15">
+        <v>149454451</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13">
         <v>157898709</v>
       </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1738,205 +1776,191 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6" t="s">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9">
+        <v>59242</v>
+      </c>
+      <c r="F62" s="9">
+        <v>34321</v>
+      </c>
+      <c r="G62" s="9">
+        <v>64523</v>
+      </c>
+      <c r="H62" s="9">
+        <v>24323</v>
+      </c>
+      <c r="I62" s="9">
+        <v>68412</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11">
+        <v>413107400</v>
+      </c>
+      <c r="F63" s="11">
+        <v>330716300</v>
+      </c>
+      <c r="G63" s="11">
+        <v>308566300</v>
+      </c>
+      <c r="H63" s="11">
+        <v>345960393</v>
+      </c>
+      <c r="I63" s="11">
+        <v>343736000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9">
+        <v>10285</v>
+      </c>
+      <c r="F64" s="9">
+        <v>26330</v>
+      </c>
+      <c r="G64" s="9">
+        <v>20043</v>
+      </c>
+      <c r="H64" s="9">
+        <v>15520</v>
+      </c>
+      <c r="I64" s="9">
+        <v>10353</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11">
+        <v>10285</v>
+      </c>
+      <c r="F65" s="11">
+        <v>19411637</v>
+      </c>
+      <c r="G65" s="11">
+        <v>13981984</v>
+      </c>
+      <c r="H65" s="11">
+        <v>34364802</v>
+      </c>
+      <c r="I65" s="11">
+        <v>32697786</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15">
+        <v>26425156</v>
+      </c>
+      <c r="F66" s="15">
+        <v>350188588</v>
+      </c>
+      <c r="G66" s="15">
+        <v>322632850</v>
+      </c>
+      <c r="H66" s="15">
+        <v>380365038</v>
+      </c>
+      <c r="I66" s="15">
+        <v>376512551</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13">
+        <v>439612368</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B71" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="I71" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9">
-        <v>42425</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="9">
-        <v>64523</v>
-      </c>
-      <c r="I65" s="9">
-        <v>24323</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="11">
-        <v>59242</v>
-      </c>
-      <c r="G66" s="11">
-        <v>34321</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9">
-        <v>407591576</v>
-      </c>
-      <c r="F67" s="9">
-        <v>413107400</v>
-      </c>
-      <c r="G67" s="9">
-        <v>330716300</v>
-      </c>
-      <c r="H67" s="9">
-        <v>308566300</v>
-      </c>
-      <c r="I67" s="9">
-        <v>345960393</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11">
-        <v>15616</v>
-      </c>
-      <c r="F68" s="11">
-        <v>10285</v>
-      </c>
-      <c r="G68" s="11">
-        <v>26330</v>
-      </c>
-      <c r="H68" s="11">
-        <v>20043</v>
-      </c>
-      <c r="I68" s="11">
-        <v>15520</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9">
-        <v>24628924</v>
-      </c>
-      <c r="F69" s="9">
-        <v>10285</v>
-      </c>
-      <c r="G69" s="9">
-        <v>19411637</v>
-      </c>
-      <c r="H69" s="9">
-        <v>13981984</v>
-      </c>
-      <c r="I69" s="9">
-        <v>34364802</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13">
-        <v>432278541</v>
-      </c>
-      <c r="F70" s="13">
-        <v>26425156</v>
-      </c>
-      <c r="G70" s="13">
-        <v>350188588</v>
-      </c>
-      <c r="H70" s="13">
-        <v>322632850</v>
-      </c>
-      <c r="I70" s="13">
-        <v>380365038</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15">
-        <v>439612368</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1946,245 +1970,247 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9">
+        <v>4337</v>
+      </c>
+      <c r="F73" s="9">
+        <v>6096</v>
+      </c>
+      <c r="G73" s="9">
+        <v>3517</v>
+      </c>
+      <c r="H73" s="9">
+        <v>6486</v>
+      </c>
+      <c r="I73" s="9">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11">
+        <v>817745</v>
+      </c>
+      <c r="F74" s="11">
+        <v>829138</v>
+      </c>
+      <c r="G74" s="11">
+        <v>677608</v>
+      </c>
+      <c r="H74" s="11">
+        <v>677894</v>
+      </c>
+      <c r="I74" s="11">
+        <v>806479</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9">
+        <v>13009</v>
+      </c>
+      <c r="F75" s="9">
+        <v>8567</v>
+      </c>
+      <c r="G75" s="9">
+        <v>23249</v>
+      </c>
+      <c r="H75" s="9">
+        <v>17697</v>
+      </c>
+      <c r="I75" s="9">
+        <v>13704</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11">
+        <v>38312</v>
+      </c>
+      <c r="F76" s="11">
+        <v>54996</v>
+      </c>
+      <c r="G76" s="11">
+        <v>36904</v>
+      </c>
+      <c r="H76" s="11">
+        <v>25327</v>
+      </c>
+      <c r="I76" s="11">
+        <v>86559</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15">
+        <v>873403</v>
+      </c>
+      <c r="F77" s="15">
+        <v>898797</v>
+      </c>
+      <c r="G77" s="15">
+        <v>741278</v>
+      </c>
+      <c r="H77" s="15">
+        <v>727404</v>
+      </c>
+      <c r="I77" s="15">
+        <v>908277</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B81" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6" t="s">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F81" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G81" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H81" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I81" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9">
-        <v>0</v>
-      </c>
-      <c r="F77" s="9">
-        <v>0</v>
-      </c>
-      <c r="G77" s="9">
-        <v>0</v>
-      </c>
-      <c r="H77" s="9">
-        <v>0</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11">
-        <v>0</v>
-      </c>
-      <c r="F78" s="11">
-        <v>0</v>
-      </c>
-      <c r="G78" s="11">
-        <v>0</v>
-      </c>
-      <c r="H78" s="11">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9">
-        <v>0</v>
-      </c>
-      <c r="F79" s="9">
-        <v>0</v>
-      </c>
-      <c r="G79" s="9">
-        <v>0</v>
-      </c>
-      <c r="H79" s="9">
-        <v>0</v>
-      </c>
-      <c r="I79" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11">
-        <v>0</v>
-      </c>
-      <c r="F80" s="11">
-        <v>0</v>
-      </c>
-      <c r="G80" s="11">
-        <v>0</v>
-      </c>
-      <c r="H80" s="11">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9">
-        <v>0</v>
-      </c>
-      <c r="F81" s="9">
-        <v>0</v>
-      </c>
-      <c r="G81" s="9">
-        <v>0</v>
-      </c>
-      <c r="H81" s="9">
-        <v>0</v>
-      </c>
-      <c r="I81" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11">
-        <v>2499</v>
-      </c>
-      <c r="F82" s="11">
-        <v>2993</v>
-      </c>
-      <c r="G82" s="11">
-        <v>2874</v>
-      </c>
-      <c r="H82" s="11">
-        <v>430</v>
-      </c>
-      <c r="I82" s="11">
-        <v>7075</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>10080</v>
+        <v>6750</v>
       </c>
       <c r="F83" s="9">
-        <v>9485</v>
+        <v>3017</v>
       </c>
       <c r="G83" s="9">
-        <v>9471</v>
+        <v>10547</v>
       </c>
       <c r="H83" s="9">
-        <v>27189</v>
+        <v>2732</v>
       </c>
       <c r="I83" s="9">
-        <v>4992</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15259</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>40022</v>
+        <v>314787</v>
       </c>
       <c r="F84" s="11">
-        <v>73163</v>
+        <v>81706</v>
       </c>
       <c r="G84" s="11">
-        <v>11024</v>
+        <v>342981</v>
       </c>
       <c r="H84" s="11">
-        <v>73239</v>
+        <v>398939</v>
       </c>
       <c r="I84" s="11">
-        <v>60328</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>356042</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
         <v>0</v>
       </c>
       <c r="F85" s="9">
-        <v>0</v>
+        <v>19114</v>
       </c>
       <c r="G85" s="9">
         <v>0</v>
@@ -2196,51 +2222,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C86" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>21673</v>
+        <v>15395</v>
       </c>
       <c r="F86" s="11">
-        <v>-11922</v>
+        <v>6156</v>
       </c>
       <c r="G86" s="11">
-        <v>73938</v>
+        <v>3391</v>
       </c>
       <c r="H86" s="11">
-        <v>17150</v>
+        <v>73257</v>
       </c>
       <c r="I86" s="11">
-        <v>40761</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21875</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>74274</v>
+        <v>336932</v>
       </c>
       <c r="F87" s="15">
-        <v>73719</v>
+        <v>109993</v>
       </c>
       <c r="G87" s="15">
-        <v>97307</v>
+        <v>356919</v>
       </c>
       <c r="H87" s="15">
-        <v>118008</v>
+        <v>474928</v>
       </c>
       <c r="I87" s="15">
-        <v>113156</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>393176</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2250,7 +2278,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2260,7 +2288,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2270,19 +2298,29 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E91" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2292,136 +2330,1455 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E93" s="9">
+        <v>4991</v>
+      </c>
+      <c r="F93" s="9">
+        <v>5596</v>
+      </c>
+      <c r="G93" s="9">
+        <v>7578</v>
+      </c>
+      <c r="H93" s="9">
+        <v>7729</v>
+      </c>
+      <c r="I93" s="9">
+        <v>8194</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E94" s="11">
+        <v>303394</v>
+      </c>
+      <c r="F94" s="11">
+        <v>233236</v>
+      </c>
+      <c r="G94" s="11">
+        <v>342695</v>
+      </c>
+      <c r="H94" s="11">
+        <v>270353</v>
+      </c>
+      <c r="I94" s="11">
+        <v>401726</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E95" s="9">
+        <v>4442</v>
+      </c>
+      <c r="F95" s="9">
+        <v>4432</v>
+      </c>
+      <c r="G95" s="9">
+        <v>5552</v>
+      </c>
+      <c r="H95" s="9">
+        <v>3993</v>
+      </c>
+      <c r="I95" s="9">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
+      <c r="E96" s="11">
+        <v>-1289</v>
+      </c>
+      <c r="F96" s="11">
+        <v>24248</v>
+      </c>
+      <c r="G96" s="11">
+        <v>14968</v>
+      </c>
+      <c r="H96" s="11">
+        <v>12025</v>
+      </c>
+      <c r="I96" s="11">
+        <v>13525</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15">
+        <v>311538</v>
+      </c>
+      <c r="F97" s="15">
+        <v>267512</v>
+      </c>
+      <c r="G97" s="15">
+        <v>370793</v>
+      </c>
+      <c r="H97" s="15">
+        <v>294100</v>
+      </c>
+      <c r="I97" s="15">
+        <v>428008</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B101" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9">
+        <v>6096</v>
+      </c>
+      <c r="F103" s="9">
+        <v>3517</v>
+      </c>
+      <c r="G103" s="9">
+        <v>6486</v>
+      </c>
+      <c r="H103" s="9">
+        <v>1535</v>
+      </c>
+      <c r="I103" s="9">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11">
+        <v>829138</v>
+      </c>
+      <c r="F104" s="11">
+        <v>677608</v>
+      </c>
+      <c r="G104" s="11">
+        <v>677894</v>
+      </c>
+      <c r="H104" s="11">
+        <v>806479</v>
+      </c>
+      <c r="I104" s="11">
+        <v>760795</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9">
+        <v>8567</v>
+      </c>
+      <c r="F105" s="9">
+        <v>23249</v>
+      </c>
+      <c r="G105" s="9">
+        <v>17697</v>
+      </c>
+      <c r="H105" s="9">
+        <v>13704</v>
+      </c>
+      <c r="I105" s="9">
+        <v>9141</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11">
+        <v>54996</v>
+      </c>
+      <c r="F106" s="11">
+        <v>36904</v>
+      </c>
+      <c r="G106" s="11">
+        <v>25327</v>
+      </c>
+      <c r="H106" s="11">
+        <v>86559</v>
+      </c>
+      <c r="I106" s="11">
+        <v>94909</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15">
+        <v>898797</v>
+      </c>
+      <c r="F107" s="15">
+        <v>741278</v>
+      </c>
+      <c r="G107" s="15">
+        <v>727404</v>
+      </c>
+      <c r="H107" s="15">
+        <v>908277</v>
+      </c>
+      <c r="I107" s="15">
+        <v>873445</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B111" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9">
+        <v>102227</v>
+      </c>
+      <c r="F113" s="9">
+        <v>102900</v>
+      </c>
+      <c r="G113" s="9">
+        <v>102474</v>
+      </c>
+      <c r="H113" s="9">
+        <v>100522</v>
+      </c>
+      <c r="I113" s="9">
+        <v>63109</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11">
+        <v>2006</v>
+      </c>
+      <c r="F114" s="11">
+        <v>2007</v>
+      </c>
+      <c r="G114" s="11">
+        <v>2049</v>
+      </c>
+      <c r="H114" s="11">
+        <v>2197</v>
+      </c>
+      <c r="I114" s="11">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9">
+        <v>833056</v>
+      </c>
+      <c r="F115" s="9">
+        <v>832961</v>
+      </c>
+      <c r="G115" s="9">
+        <v>882985</v>
+      </c>
+      <c r="H115" s="9">
+        <v>882952</v>
+      </c>
+      <c r="I115" s="9">
+        <v>882990</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11">
+        <v>833056</v>
+      </c>
+      <c r="F116" s="11">
+        <v>2081</v>
+      </c>
+      <c r="G116" s="11">
+        <v>1901</v>
+      </c>
+      <c r="H116" s="11">
+        <v>1811</v>
+      </c>
+      <c r="I116" s="11">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9">
+        <v>1556</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B121" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B123" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9">
+        <v>116617</v>
+      </c>
+      <c r="F123" s="9">
+        <v>134280</v>
+      </c>
+      <c r="G123" s="9">
+        <v>130334</v>
+      </c>
+      <c r="H123" s="9">
+        <v>589937</v>
+      </c>
+      <c r="I123" s="9">
+        <v>171503</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B124" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11">
+        <v>1901</v>
+      </c>
+      <c r="F124" s="11">
+        <v>3257</v>
+      </c>
+      <c r="G124" s="11">
+        <v>2378</v>
+      </c>
+      <c r="H124" s="11">
+        <v>2545</v>
+      </c>
+      <c r="I124" s="11">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B125" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F125" s="9">
+        <v>900033</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B126" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F126" s="11">
+        <v>805</v>
+      </c>
+      <c r="G126" s="11">
+        <v>2245</v>
+      </c>
+      <c r="H126" s="11">
+        <v>2731</v>
+      </c>
+      <c r="I126" s="11">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B127" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9">
+        <v>-32852</v>
+      </c>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B131" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B133" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9">
+        <v>121539</v>
+      </c>
+      <c r="F133" s="9">
+        <v>118086</v>
+      </c>
+      <c r="G133" s="9">
+        <v>149406</v>
+      </c>
+      <c r="H133" s="9">
+        <v>172403</v>
+      </c>
+      <c r="I133" s="9">
+        <v>178061</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11">
+        <v>1895</v>
+      </c>
+      <c r="F134" s="11">
+        <v>2170</v>
+      </c>
+      <c r="G134" s="11">
+        <v>2060</v>
+      </c>
+      <c r="H134" s="11">
+        <v>2265</v>
+      </c>
+      <c r="I134" s="11">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9">
+        <v>833240</v>
+      </c>
+      <c r="F135" s="9">
+        <v>853621</v>
+      </c>
+      <c r="G135" s="9">
+        <v>883092</v>
+      </c>
+      <c r="H135" s="9">
+        <v>882821</v>
+      </c>
+      <c r="I135" s="9">
+        <v>883104</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11">
+        <v>833240</v>
+      </c>
+      <c r="F136" s="11">
+        <v>1654</v>
+      </c>
+      <c r="G136" s="11">
+        <v>2157</v>
+      </c>
+      <c r="H136" s="11">
+        <v>1868</v>
+      </c>
+      <c r="I136" s="11">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9">
+        <v>569</v>
+      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B141" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B143" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9">
+        <v>102900</v>
+      </c>
+      <c r="F143" s="9">
+        <v>102474</v>
+      </c>
+      <c r="G143" s="9">
+        <v>100522</v>
+      </c>
+      <c r="H143" s="9">
+        <v>63109</v>
+      </c>
+      <c r="I143" s="9">
+        <v>125709</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B144" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11">
+        <v>2007</v>
+      </c>
+      <c r="F144" s="11">
+        <v>2049</v>
+      </c>
+      <c r="G144" s="11">
+        <v>2197</v>
+      </c>
+      <c r="H144" s="11">
+        <v>2331</v>
+      </c>
+      <c r="I144" s="11">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B145" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9">
+        <v>832961</v>
+      </c>
+      <c r="F145" s="9">
+        <v>882985</v>
+      </c>
+      <c r="G145" s="9">
+        <v>882952</v>
+      </c>
+      <c r="H145" s="9">
+        <v>882990</v>
+      </c>
+      <c r="I145" s="9">
+        <v>882932</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11">
+        <v>832961</v>
+      </c>
+      <c r="F146" s="11">
+        <v>1901</v>
+      </c>
+      <c r="G146" s="11">
+        <v>1811</v>
+      </c>
+      <c r="H146" s="11">
+        <v>2519</v>
+      </c>
+      <c r="I146" s="11">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9">
+        <v>2081</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B151" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B153" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9">
+        <v>0</v>
+      </c>
+      <c r="F153" s="9">
+        <v>0</v>
+      </c>
+      <c r="G153" s="9">
+        <v>0</v>
+      </c>
+      <c r="H153" s="9">
+        <v>0</v>
+      </c>
+      <c r="I153" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B154" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11">
+        <v>0</v>
+      </c>
+      <c r="F154" s="11">
+        <v>0</v>
+      </c>
+      <c r="G154" s="11">
+        <v>0</v>
+      </c>
+      <c r="H154" s="11">
+        <v>0</v>
+      </c>
+      <c r="I154" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9">
+        <v>0</v>
+      </c>
+      <c r="F155" s="9">
+        <v>0</v>
+      </c>
+      <c r="G155" s="9">
+        <v>0</v>
+      </c>
+      <c r="H155" s="9">
+        <v>0</v>
+      </c>
+      <c r="I155" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B156" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11">
+        <v>0</v>
+      </c>
+      <c r="F156" s="11">
+        <v>0</v>
+      </c>
+      <c r="G156" s="11">
+        <v>0</v>
+      </c>
+      <c r="H156" s="11">
+        <v>0</v>
+      </c>
+      <c r="I156" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9">
+        <v>0</v>
+      </c>
+      <c r="F157" s="9">
+        <v>0</v>
+      </c>
+      <c r="G157" s="9">
+        <v>0</v>
+      </c>
+      <c r="H157" s="9">
+        <v>0</v>
+      </c>
+      <c r="I157" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B158" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11">
+        <v>2993</v>
+      </c>
+      <c r="F158" s="11">
+        <v>2874</v>
+      </c>
+      <c r="G158" s="11">
+        <v>430</v>
+      </c>
+      <c r="H158" s="11">
+        <v>7075</v>
+      </c>
+      <c r="I158" s="11">
+        <v>6605</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B159" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9">
+        <v>9485</v>
+      </c>
+      <c r="F159" s="9">
+        <v>9471</v>
+      </c>
+      <c r="G159" s="9">
+        <v>27189</v>
+      </c>
+      <c r="H159" s="9">
+        <v>4992</v>
+      </c>
+      <c r="I159" s="9">
+        <v>12670</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B160" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11">
+        <v>73163</v>
+      </c>
+      <c r="F160" s="11">
+        <v>11024</v>
+      </c>
+      <c r="G160" s="11">
+        <v>73239</v>
+      </c>
+      <c r="H160" s="11">
+        <v>60328</v>
+      </c>
+      <c r="I160" s="11">
+        <v>68459</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B161" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9">
+        <v>0</v>
+      </c>
+      <c r="F161" s="9">
+        <v>0</v>
+      </c>
+      <c r="G161" s="9">
+        <v>0</v>
+      </c>
+      <c r="H161" s="9">
+        <v>0</v>
+      </c>
+      <c r="I161" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B162" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11">
+        <v>-11922</v>
+      </c>
+      <c r="F162" s="11">
+        <v>73938</v>
+      </c>
+      <c r="G162" s="11">
+        <v>17150</v>
+      </c>
+      <c r="H162" s="11">
+        <v>40761</v>
+      </c>
+      <c r="I162" s="11">
+        <v>39526</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B163" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15">
+        <v>73719</v>
+      </c>
+      <c r="F163" s="15">
+        <v>97307</v>
+      </c>
+      <c r="G163" s="15">
+        <v>118008</v>
+      </c>
+      <c r="H163" s="15">
+        <v>113156</v>
+      </c>
+      <c r="I163" s="15">
+        <v>127260</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B167" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B169" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B170" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
+      <c r="C170" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="10" t="s">
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B171" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C171" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B172" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B173" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B174" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B175" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B176" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B177" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B178" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/darou/dekapsul/cost/quarterly.xlsx
+++ b/database/industries/darou/dekapsul/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDDC4B5-A23F-412A-83C4-CF68BCBCB9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A0F3E6-156B-4743-8836-613253115459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="81">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -724,12 +724,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -744,7 +744,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,7 +761,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -778,7 +778,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -793,7 +793,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -842,7 +842,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -879,7 +879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -894,155 +894,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>149600</v>
+        <v>171630</v>
       </c>
       <c r="F10" s="9">
-        <v>171630</v>
+        <v>35441</v>
       </c>
       <c r="G10" s="9">
-        <v>35441</v>
+        <v>261048</v>
       </c>
       <c r="H10" s="9">
-        <v>261048</v>
+        <v>315874</v>
       </c>
       <c r="I10" s="9">
-        <v>315874</v>
+        <v>311538</v>
       </c>
       <c r="J10" s="9">
-        <v>311538</v>
+        <v>267512</v>
       </c>
       <c r="K10" s="9">
-        <v>267512</v>
+        <v>370793</v>
       </c>
       <c r="L10" s="9">
-        <v>370793</v>
+        <v>294100</v>
       </c>
       <c r="M10" s="9">
-        <v>294100</v>
+        <v>428008</v>
       </c>
       <c r="N10" s="9">
-        <v>428008</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>254016</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>39628</v>
+        <v>38667</v>
       </c>
       <c r="F11" s="11">
-        <v>38667</v>
+        <v>35491</v>
       </c>
       <c r="G11" s="11">
-        <v>35491</v>
+        <v>54724</v>
       </c>
       <c r="H11" s="11">
-        <v>54724</v>
+        <v>47094</v>
       </c>
       <c r="I11" s="11">
-        <v>47094</v>
+        <v>48385</v>
       </c>
       <c r="J11" s="11">
-        <v>48385</v>
+        <v>52040</v>
       </c>
       <c r="K11" s="11">
-        <v>52040</v>
+        <v>82899</v>
       </c>
       <c r="L11" s="11">
-        <v>82899</v>
+        <v>69106</v>
       </c>
       <c r="M11" s="11">
-        <v>69106</v>
+        <v>59400</v>
       </c>
       <c r="N11" s="11">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>75403</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>46635</v>
+        <v>51569</v>
       </c>
       <c r="F12" s="9">
-        <v>51569</v>
+        <v>62740</v>
       </c>
       <c r="G12" s="9">
-        <v>62740</v>
+        <v>75971</v>
       </c>
       <c r="H12" s="9">
-        <v>75971</v>
+        <v>74274</v>
       </c>
       <c r="I12" s="9">
-        <v>74274</v>
+        <v>73719</v>
       </c>
       <c r="J12" s="9">
-        <v>73719</v>
+        <v>97307</v>
       </c>
       <c r="K12" s="9">
-        <v>97307</v>
+        <v>118008</v>
       </c>
       <c r="L12" s="9">
-        <v>118008</v>
+        <v>113156</v>
       </c>
       <c r="M12" s="9">
-        <v>113156</v>
+        <v>127260</v>
       </c>
       <c r="N12" s="9">
-        <v>127260</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>112606</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>235863</v>
+        <v>261866</v>
       </c>
       <c r="F13" s="13">
-        <v>261866</v>
+        <v>133672</v>
       </c>
       <c r="G13" s="13">
-        <v>133672</v>
+        <v>391743</v>
       </c>
       <c r="H13" s="13">
-        <v>391743</v>
+        <v>437242</v>
       </c>
       <c r="I13" s="13">
-        <v>437242</v>
+        <v>433642</v>
       </c>
       <c r="J13" s="13">
-        <v>433642</v>
+        <v>416859</v>
       </c>
       <c r="K13" s="13">
-        <v>416859</v>
+        <v>571700</v>
       </c>
       <c r="L13" s="13">
-        <v>571700</v>
+        <v>476362</v>
       </c>
       <c r="M13" s="13">
-        <v>476362</v>
+        <v>614668</v>
       </c>
       <c r="N13" s="13">
-        <v>614668</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>442025</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1079,155 +1079,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>235863</v>
+        <v>261866</v>
       </c>
       <c r="F15" s="13">
-        <v>261866</v>
+        <v>133672</v>
       </c>
       <c r="G15" s="13">
-        <v>133672</v>
+        <v>391743</v>
       </c>
       <c r="H15" s="13">
-        <v>391743</v>
+        <v>437242</v>
       </c>
       <c r="I15" s="13">
-        <v>437242</v>
+        <v>433642</v>
       </c>
       <c r="J15" s="13">
-        <v>433642</v>
+        <v>416859</v>
       </c>
       <c r="K15" s="13">
-        <v>416859</v>
+        <v>571700</v>
       </c>
       <c r="L15" s="13">
-        <v>571700</v>
+        <v>476362</v>
       </c>
       <c r="M15" s="13">
-        <v>476362</v>
+        <v>614668</v>
       </c>
       <c r="N15" s="13">
-        <v>614668</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>442025</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-5795</v>
+        <v>1594</v>
       </c>
       <c r="F16" s="9">
-        <v>1594</v>
+        <v>6091</v>
       </c>
       <c r="G16" s="9">
-        <v>6091</v>
+        <v>-15624</v>
       </c>
       <c r="H16" s="9">
-        <v>-15624</v>
+        <v>-439</v>
       </c>
       <c r="I16" s="9">
-        <v>-439</v>
+        <v>-1065</v>
       </c>
       <c r="J16" s="9">
-        <v>-1065</v>
+        <v>16266</v>
       </c>
       <c r="K16" s="9">
-        <v>16266</v>
+        <v>-22004</v>
       </c>
       <c r="L16" s="9">
-        <v>-22004</v>
+        <v>-4261</v>
       </c>
       <c r="M16" s="9">
-        <v>-4261</v>
+        <v>26265</v>
       </c>
       <c r="N16" s="9">
-        <v>26265</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>-2157</v>
       </c>
       <c r="F17" s="11">
-        <v>-2157</v>
+        <v>-1341</v>
       </c>
       <c r="G17" s="11">
-        <v>-1341</v>
+        <v>-47</v>
       </c>
       <c r="H17" s="11">
-        <v>-47</v>
+        <v>-2647</v>
       </c>
       <c r="I17" s="11">
-        <v>-2647</v>
+        <v>-1734</v>
       </c>
       <c r="J17" s="11">
-        <v>-1734</v>
+        <v>-3882</v>
       </c>
       <c r="K17" s="11">
-        <v>-3882</v>
+        <v>-1788</v>
       </c>
       <c r="L17" s="11">
-        <v>-1788</v>
+        <v>-2709</v>
       </c>
       <c r="M17" s="11">
-        <v>-2709</v>
+        <v>-295</v>
       </c>
       <c r="N17" s="11">
-        <v>-295</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>230068</v>
+        <v>261303</v>
       </c>
       <c r="F18" s="15">
-        <v>261303</v>
+        <v>138422</v>
       </c>
       <c r="G18" s="15">
-        <v>138422</v>
+        <v>376072</v>
       </c>
       <c r="H18" s="15">
-        <v>376072</v>
+        <v>434156</v>
       </c>
       <c r="I18" s="15">
-        <v>434156</v>
+        <v>430843</v>
       </c>
       <c r="J18" s="15">
-        <v>430843</v>
+        <v>429243</v>
       </c>
       <c r="K18" s="15">
-        <v>429243</v>
+        <v>547908</v>
       </c>
       <c r="L18" s="15">
-        <v>547908</v>
+        <v>469392</v>
       </c>
       <c r="M18" s="15">
-        <v>469392</v>
+        <v>640638</v>
       </c>
       <c r="N18" s="15">
-        <v>640638</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>438723</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1237,108 +1237,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>18143</v>
       </c>
       <c r="G19" s="11">
-        <v>2242</v>
+        <v>35447</v>
       </c>
       <c r="H19" s="11">
-        <v>35447</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>8670</v>
       </c>
       <c r="J19" s="11">
-        <v>8670</v>
+        <v>37631</v>
       </c>
       <c r="K19" s="11">
-        <v>7524</v>
+        <v>85352</v>
       </c>
       <c r="L19" s="11">
-        <v>85352</v>
+        <v>83369</v>
       </c>
       <c r="M19" s="11">
-        <v>83369</v>
+        <v>75766</v>
       </c>
       <c r="N19" s="11">
-        <v>7603</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>102380</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>2766</v>
+        <v>-2242</v>
       </c>
       <c r="F20" s="9">
-        <v>-2242</v>
+        <v>-35447</v>
       </c>
       <c r="G20" s="9">
-        <v>-35447</v>
+        <v>-53825</v>
       </c>
       <c r="H20" s="9">
-        <v>-53825</v>
+        <v>8670</v>
       </c>
       <c r="I20" s="9">
-        <v>8670</v>
+        <v>-37631</v>
       </c>
       <c r="J20" s="9">
-        <v>-37631</v>
+        <v>-85352</v>
       </c>
       <c r="K20" s="9">
-        <v>-85352</v>
+        <v>-83369</v>
       </c>
       <c r="L20" s="9">
-        <v>-83369</v>
+        <v>-75766</v>
       </c>
       <c r="M20" s="9">
-        <v>-75766</v>
+        <v>-102380</v>
       </c>
       <c r="N20" s="9">
-        <v>-102380</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-111912</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>232834</v>
+        <v>259061</v>
       </c>
       <c r="F21" s="13">
-        <v>259061</v>
+        <v>121118</v>
       </c>
       <c r="G21" s="13">
-        <v>121118</v>
+        <v>357694</v>
       </c>
       <c r="H21" s="13">
-        <v>357694</v>
+        <v>442826</v>
       </c>
       <c r="I21" s="13">
-        <v>442826</v>
+        <v>438367</v>
       </c>
       <c r="J21" s="13">
-        <v>438367</v>
+        <v>381522</v>
       </c>
       <c r="K21" s="13">
-        <v>381522</v>
+        <v>549891</v>
       </c>
       <c r="L21" s="13">
-        <v>549891</v>
+        <v>476995</v>
       </c>
       <c r="M21" s="13">
-        <v>476995</v>
+        <v>614024</v>
       </c>
       <c r="N21" s="13">
-        <v>614024</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>429191</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1375,44 +1375,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>232834</v>
+        <v>259061</v>
       </c>
       <c r="F23" s="13">
-        <v>259061</v>
+        <v>121118</v>
       </c>
       <c r="G23" s="13">
-        <v>121118</v>
+        <v>357694</v>
       </c>
       <c r="H23" s="13">
-        <v>357694</v>
+        <v>442826</v>
       </c>
       <c r="I23" s="13">
-        <v>442826</v>
+        <v>438367</v>
       </c>
       <c r="J23" s="13">
-        <v>438367</v>
+        <v>381522</v>
       </c>
       <c r="K23" s="13">
-        <v>381522</v>
+        <v>549891</v>
       </c>
       <c r="L23" s="13">
-        <v>549891</v>
+        <v>476995</v>
       </c>
       <c r="M23" s="13">
-        <v>476995</v>
+        <v>614024</v>
       </c>
       <c r="N23" s="13">
-        <v>614024</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>429191</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1427,7 +1427,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1442,7 +1442,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1457,7 +1457,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1509,7 +1509,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1529,26 +1529,26 @@
       <c r="H29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="9">
+      <c r="I29" s="9">
         <v>42425</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>31</v>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9">
+        <v>34321</v>
       </c>
       <c r="L29" s="9">
-        <v>34321</v>
+        <v>64523</v>
       </c>
       <c r="M29" s="9">
-        <v>64523</v>
+        <v>24323</v>
       </c>
       <c r="N29" s="9">
-        <v>24323</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>68412</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1557,37 +1557,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>180555000</v>
+        <v>258760500</v>
       </c>
       <c r="F30" s="11">
-        <v>258760500</v>
+        <v>173940500</v>
       </c>
       <c r="G30" s="11">
-        <v>173940500</v>
+        <v>354312400</v>
       </c>
       <c r="H30" s="11">
-        <v>354312400</v>
+        <v>315262400</v>
       </c>
       <c r="I30" s="11">
-        <v>315262400</v>
-      </c>
-      <c r="J30" s="11">
         <v>407591576</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>31</v>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11">
+        <v>330716300</v>
       </c>
       <c r="L30" s="11">
-        <v>330716300</v>
+        <v>308566300</v>
       </c>
       <c r="M30" s="11">
-        <v>308566300</v>
+        <v>333920300</v>
       </c>
       <c r="N30" s="11">
-        <v>333920300</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>343736000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1595,38 +1595,38 @@
         <v>35</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9">
-        <v>30401</v>
+      <c r="E31" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>31</v>
+      <c r="G31" s="9">
+        <v>70134</v>
       </c>
       <c r="H31" s="9">
-        <v>70134</v>
+        <v>30704</v>
       </c>
       <c r="I31" s="9">
-        <v>30704</v>
-      </c>
-      <c r="J31" s="9">
         <v>15616</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>31</v>
+      <c r="J31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="9">
+        <v>26330</v>
       </c>
       <c r="L31" s="9">
-        <v>26330</v>
+        <v>20043</v>
       </c>
       <c r="M31" s="9">
-        <v>20043</v>
+        <v>15520</v>
       </c>
       <c r="N31" s="9">
-        <v>15520</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10353</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
@@ -1635,74 +1635,74 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>18647868</v>
+        <v>14726177</v>
       </c>
       <c r="F32" s="11">
-        <v>14726177</v>
+        <v>17077898</v>
       </c>
       <c r="G32" s="11">
-        <v>17077898</v>
+        <v>16075697</v>
       </c>
       <c r="H32" s="11">
-        <v>16075697</v>
+        <v>24599483</v>
       </c>
       <c r="I32" s="11">
-        <v>24599483</v>
-      </c>
-      <c r="J32" s="11">
         <v>24628924</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>31</v>
+      <c r="J32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="11">
+        <v>19411637</v>
       </c>
       <c r="L32" s="11">
-        <v>19411637</v>
+        <v>13981984</v>
       </c>
       <c r="M32" s="11">
-        <v>13981984</v>
+        <v>34364802</v>
       </c>
       <c r="N32" s="11">
-        <v>34364802</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>32697786</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
-        <v>199233269</v>
+        <v>273486677</v>
       </c>
       <c r="F33" s="15">
-        <v>273486677</v>
+        <v>191018398</v>
       </c>
       <c r="G33" s="15">
-        <v>191018398</v>
+        <v>370458231</v>
       </c>
       <c r="H33" s="15">
-        <v>370458231</v>
+        <v>339892587</v>
       </c>
       <c r="I33" s="15">
-        <v>339892587</v>
+        <v>432278541</v>
       </c>
       <c r="J33" s="15">
-        <v>432278541</v>
+        <v>0</v>
       </c>
       <c r="K33" s="15">
-        <v>0</v>
+        <v>350188588</v>
       </c>
       <c r="L33" s="15">
-        <v>350188588</v>
+        <v>322632850</v>
       </c>
       <c r="M33" s="15">
-        <v>322632850</v>
+        <v>368324945</v>
       </c>
       <c r="N33" s="15">
-        <v>368324945</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>376512551</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1717,7 +1717,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1732,7 +1732,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1747,7 +1747,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>37</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1799,7 +1799,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>29</v>
       </c>
@@ -1816,29 +1816,29 @@
       <c r="G39" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>31</v>
+      <c r="H39" s="9">
+        <v>73394</v>
       </c>
       <c r="I39" s="9">
-        <v>73394</v>
+        <v>57882</v>
       </c>
       <c r="J39" s="9">
-        <v>57882</v>
+        <v>22468</v>
       </c>
       <c r="K39" s="9">
-        <v>22468</v>
+        <v>80923</v>
       </c>
       <c r="L39" s="9">
-        <v>80923</v>
+        <v>4631</v>
       </c>
       <c r="M39" s="9">
-        <v>4631</v>
+        <v>88972</v>
       </c>
       <c r="N39" s="9">
-        <v>88972</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>70898</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>32</v>
       </c>
@@ -1847,37 +1847,37 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>227141000</v>
+        <v>83165000</v>
       </c>
       <c r="F40" s="11">
-        <v>83165000</v>
+        <v>291700000</v>
       </c>
       <c r="G40" s="11">
-        <v>291700000</v>
+        <v>108300000</v>
       </c>
       <c r="H40" s="11">
-        <v>108300000</v>
+        <v>235518345</v>
       </c>
       <c r="I40" s="11">
-        <v>235518345</v>
+        <v>165627655</v>
       </c>
       <c r="J40" s="11">
-        <v>165627655</v>
+        <v>25087181</v>
       </c>
       <c r="K40" s="11">
-        <v>25087181</v>
+        <v>144207581</v>
       </c>
       <c r="L40" s="11">
-        <v>144207581</v>
+        <v>156780062</v>
       </c>
       <c r="M40" s="11">
-        <v>156780062</v>
+        <v>140507357</v>
       </c>
       <c r="N40" s="11">
-        <v>140507357</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>144953799</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>34</v>
       </c>
@@ -1886,25 +1886,25 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>45201</v>
+        <v>148706</v>
       </c>
       <c r="F41" s="9">
-        <v>148706</v>
+        <v>222652</v>
       </c>
       <c r="G41" s="9">
-        <v>222652</v>
+        <v>14849</v>
       </c>
       <c r="H41" s="9">
-        <v>14849</v>
+        <v>5061</v>
       </c>
       <c r="I41" s="9">
-        <v>5061</v>
+        <v>0</v>
       </c>
       <c r="J41" s="9">
-        <v>0</v>
+        <v>21237</v>
       </c>
       <c r="K41" s="9">
-        <v>21237</v>
+        <v>0</v>
       </c>
       <c r="L41" s="9">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>36</v>
       </c>
@@ -1925,74 +1925,74 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>2605200</v>
+        <v>8585700</v>
       </c>
       <c r="F42" s="11">
-        <v>8585700</v>
+        <v>4668230</v>
       </c>
       <c r="G42" s="11">
-        <v>4668230</v>
+        <v>14329500</v>
       </c>
       <c r="H42" s="11">
-        <v>14329500</v>
+        <v>7830600</v>
       </c>
       <c r="I42" s="11">
-        <v>7830600</v>
+        <v>-468617</v>
       </c>
       <c r="J42" s="11">
-        <v>-468617</v>
+        <v>7647005</v>
       </c>
       <c r="K42" s="11">
-        <v>7647005</v>
+        <v>1510500</v>
       </c>
       <c r="L42" s="11">
-        <v>1510500</v>
+        <v>26820500</v>
       </c>
       <c r="M42" s="11">
-        <v>26820500</v>
+        <v>5004500</v>
       </c>
       <c r="N42" s="11">
-        <v>5004500</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2063912</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
-        <v>229791401</v>
+        <v>91899406</v>
       </c>
       <c r="F43" s="15">
-        <v>91899406</v>
+        <v>296590882</v>
       </c>
       <c r="G43" s="15">
-        <v>296590882</v>
+        <v>122644349</v>
       </c>
       <c r="H43" s="15">
-        <v>122644349</v>
+        <v>243427400</v>
       </c>
       <c r="I43" s="15">
-        <v>243427400</v>
+        <v>165216920</v>
       </c>
       <c r="J43" s="15">
-        <v>165216920</v>
+        <v>32777891</v>
       </c>
       <c r="K43" s="15">
-        <v>32777891</v>
+        <v>145799004</v>
       </c>
       <c r="L43" s="15">
-        <v>145799004</v>
+        <v>183605193</v>
       </c>
       <c r="M43" s="15">
-        <v>183605193</v>
+        <v>145600829</v>
       </c>
       <c r="N43" s="15">
-        <v>145600829</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>147091893</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2007,7 +2007,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2022,7 +2022,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2037,7 +2037,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>38</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2089,7 +2089,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>29</v>
       </c>
@@ -2106,29 +2106,29 @@
       <c r="G49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>31</v>
+      <c r="H49" s="9">
+        <v>94512</v>
       </c>
       <c r="I49" s="9">
-        <v>94512</v>
+        <v>41065</v>
       </c>
       <c r="J49" s="9">
-        <v>41065</v>
+        <v>47389</v>
       </c>
       <c r="K49" s="9">
-        <v>47389</v>
+        <v>50721</v>
       </c>
       <c r="L49" s="9">
-        <v>50721</v>
+        <v>44831</v>
       </c>
       <c r="M49" s="9">
-        <v>44831</v>
+        <v>46018</v>
       </c>
       <c r="N49" s="9">
-        <v>46018</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38527</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>32</v>
       </c>
@@ -2137,37 +2137,37 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>148935500</v>
+        <v>167985000</v>
       </c>
       <c r="F50" s="11">
-        <v>167985000</v>
+        <v>103528100</v>
       </c>
       <c r="G50" s="11">
-        <v>103528100</v>
+        <v>147350000</v>
       </c>
       <c r="H50" s="11">
-        <v>147350000</v>
+        <v>143189169</v>
       </c>
       <c r="I50" s="11">
-        <v>143189169</v>
+        <v>160111831</v>
       </c>
       <c r="J50" s="11">
-        <v>160111831</v>
+        <v>107478281</v>
       </c>
       <c r="K50" s="11">
-        <v>107478281</v>
+        <v>166357581</v>
       </c>
       <c r="L50" s="11">
-        <v>166357581</v>
+        <v>119385969</v>
       </c>
       <c r="M50" s="11">
-        <v>119385969</v>
+        <v>142731750</v>
       </c>
       <c r="N50" s="11">
-        <v>142731750</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>131409205</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>34</v>
       </c>
@@ -2176,37 +2176,37 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>53907</v>
+        <v>158215</v>
       </c>
       <c r="F51" s="9">
-        <v>158215</v>
+        <v>205221</v>
       </c>
       <c r="G51" s="9">
-        <v>205221</v>
+        <v>54279</v>
       </c>
       <c r="H51" s="9">
-        <v>54279</v>
+        <v>-43034</v>
       </c>
       <c r="I51" s="9">
-        <v>-43034</v>
+        <v>5331</v>
       </c>
       <c r="J51" s="9">
-        <v>5331</v>
+        <v>5192</v>
       </c>
       <c r="K51" s="9">
-        <v>5192</v>
+        <v>6287</v>
       </c>
       <c r="L51" s="9">
-        <v>6287</v>
+        <v>4523</v>
       </c>
       <c r="M51" s="9">
-        <v>4523</v>
+        <v>5167</v>
       </c>
       <c r="N51" s="9">
-        <v>5167</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>36</v>
       </c>
@@ -2215,74 +2215,74 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>6526891</v>
+        <v>6233979</v>
       </c>
       <c r="F52" s="11">
-        <v>6233979</v>
+        <v>5662431</v>
       </c>
       <c r="G52" s="11">
-        <v>5662431</v>
+        <v>5805714</v>
       </c>
       <c r="H52" s="11">
-        <v>5805714</v>
+        <v>7705559</v>
       </c>
       <c r="I52" s="11">
-        <v>7705559</v>
+        <v>-2264849</v>
       </c>
       <c r="J52" s="11">
-        <v>-2264849</v>
+        <v>14660524</v>
       </c>
       <c r="K52" s="11">
-        <v>14660524</v>
+        <v>6940153</v>
       </c>
       <c r="L52" s="11">
-        <v>6940153</v>
+        <v>6437682</v>
       </c>
       <c r="M52" s="11">
-        <v>6437682</v>
+        <v>6671516</v>
       </c>
       <c r="N52" s="11">
-        <v>6671516</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5200905</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15">
-        <v>155516298</v>
+        <v>174377194</v>
       </c>
       <c r="F53" s="15">
-        <v>174377194</v>
+        <v>109395752</v>
       </c>
       <c r="G53" s="15">
-        <v>109395752</v>
+        <v>153209993</v>
       </c>
       <c r="H53" s="15">
-        <v>153209993</v>
+        <v>150946206</v>
       </c>
       <c r="I53" s="15">
-        <v>150946206</v>
+        <v>157893378</v>
       </c>
       <c r="J53" s="15">
-        <v>157893378</v>
+        <v>122191386</v>
       </c>
       <c r="K53" s="15">
-        <v>122191386</v>
+        <v>173354742</v>
       </c>
       <c r="L53" s="15">
-        <v>173354742</v>
+        <v>125873005</v>
       </c>
       <c r="M53" s="15">
-        <v>125873005</v>
+        <v>149454451</v>
       </c>
       <c r="N53" s="15">
-        <v>149454451</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>136653182</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2297,7 +2297,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2312,7 +2312,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2327,7 +2327,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>39</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2379,7 +2379,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>29</v>
       </c>
@@ -2396,29 +2396,29 @@
       <c r="G59" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>31</v>
+      <c r="H59" s="9">
+        <v>42425</v>
       </c>
       <c r="I59" s="9">
-        <v>42425</v>
+        <v>59242</v>
       </c>
       <c r="J59" s="9">
-        <v>59242</v>
+        <v>34321</v>
       </c>
       <c r="K59" s="9">
-        <v>34321</v>
+        <v>64523</v>
       </c>
       <c r="L59" s="9">
-        <v>64523</v>
+        <v>24323</v>
       </c>
       <c r="M59" s="9">
-        <v>24323</v>
+        <v>68412</v>
       </c>
       <c r="N59" s="9">
-        <v>68412</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>100783</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
@@ -2427,37 +2427,37 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>258760500</v>
+        <v>173940500</v>
       </c>
       <c r="F60" s="11">
-        <v>173940500</v>
+        <v>362112400</v>
       </c>
       <c r="G60" s="11">
-        <v>362112400</v>
+        <v>315262400</v>
       </c>
       <c r="H60" s="11">
-        <v>315262400</v>
+        <v>407591576</v>
       </c>
       <c r="I60" s="11">
-        <v>407591576</v>
+        <v>413107400</v>
       </c>
       <c r="J60" s="11">
-        <v>413107400</v>
+        <v>330716300</v>
       </c>
       <c r="K60" s="11">
-        <v>330716300</v>
+        <v>308566300</v>
       </c>
       <c r="L60" s="11">
-        <v>308566300</v>
+        <v>345960393</v>
       </c>
       <c r="M60" s="11">
-        <v>345960393</v>
+        <v>343736000</v>
       </c>
       <c r="N60" s="11">
-        <v>343736000</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>357280594</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
@@ -2466,37 +2466,37 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>21695</v>
+        <v>43554</v>
       </c>
       <c r="F61" s="9">
-        <v>43554</v>
+        <v>70494</v>
       </c>
       <c r="G61" s="9">
-        <v>70494</v>
+        <v>30704</v>
       </c>
       <c r="H61" s="9">
-        <v>30704</v>
+        <v>15616</v>
       </c>
       <c r="I61" s="9">
-        <v>15616</v>
+        <v>10285</v>
       </c>
       <c r="J61" s="9">
-        <v>10285</v>
+        <v>26330</v>
       </c>
       <c r="K61" s="9">
-        <v>26330</v>
+        <v>20043</v>
       </c>
       <c r="L61" s="9">
-        <v>20043</v>
+        <v>15520</v>
       </c>
       <c r="M61" s="9">
-        <v>15520</v>
+        <v>10353</v>
       </c>
       <c r="N61" s="9">
-        <v>10353</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9092</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>36</v>
       </c>
@@ -2505,74 +2505,74 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>14726177</v>
+        <v>17077898</v>
       </c>
       <c r="F62" s="11">
-        <v>17077898</v>
+        <v>16083697</v>
       </c>
       <c r="G62" s="11">
-        <v>16083697</v>
+        <v>24599483</v>
       </c>
       <c r="H62" s="11">
-        <v>24599483</v>
+        <v>24628924</v>
       </c>
       <c r="I62" s="11">
-        <v>24628924</v>
+        <v>26425156</v>
       </c>
       <c r="J62" s="11">
-        <v>26425156</v>
+        <v>19411637</v>
       </c>
       <c r="K62" s="11">
-        <v>19411637</v>
+        <v>13981984</v>
       </c>
       <c r="L62" s="11">
-        <v>13981984</v>
+        <v>34364802</v>
       </c>
       <c r="M62" s="11">
-        <v>34364802</v>
+        <v>32697786</v>
       </c>
       <c r="N62" s="11">
-        <v>32697786</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29560793</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>273508372</v>
+        <v>191061952</v>
       </c>
       <c r="F63" s="15">
-        <v>191061952</v>
+        <v>378266591</v>
       </c>
       <c r="G63" s="15">
-        <v>378266591</v>
+        <v>339892587</v>
       </c>
       <c r="H63" s="15">
-        <v>339892587</v>
+        <v>432278541</v>
       </c>
       <c r="I63" s="15">
-        <v>432278541</v>
+        <v>439602083</v>
       </c>
       <c r="J63" s="15">
-        <v>439602083</v>
+        <v>350188588</v>
       </c>
       <c r="K63" s="15">
-        <v>350188588</v>
+        <v>322632850</v>
       </c>
       <c r="L63" s="15">
-        <v>322632850</v>
+        <v>380365038</v>
       </c>
       <c r="M63" s="15">
-        <v>380365038</v>
+        <v>376512551</v>
       </c>
       <c r="N63" s="15">
-        <v>376512551</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>386951262</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2587,7 +2587,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2602,7 +2602,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2617,7 +2617,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>40</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2669,7 +2669,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>29</v>
       </c>
@@ -2689,26 +2689,26 @@
       <c r="H69" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I69" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J69" s="9">
+      <c r="I69" s="9">
         <v>4337</v>
       </c>
-      <c r="K69" s="9" t="s">
-        <v>31</v>
+      <c r="J69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" s="9">
+        <v>3517</v>
       </c>
       <c r="L69" s="9">
-        <v>3517</v>
+        <v>6486</v>
       </c>
       <c r="M69" s="9">
-        <v>6486</v>
+        <v>1535</v>
       </c>
       <c r="N69" s="9">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>32</v>
       </c>
@@ -2717,37 +2717,37 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>68755</v>
+        <v>134938</v>
       </c>
       <c r="F70" s="11">
-        <v>134938</v>
+        <v>35635</v>
       </c>
       <c r="G70" s="11">
-        <v>35635</v>
+        <v>572243</v>
       </c>
       <c r="H70" s="11">
-        <v>572243</v>
+        <v>597538</v>
       </c>
       <c r="I70" s="11">
-        <v>597538</v>
-      </c>
-      <c r="J70" s="11">
         <v>817745</v>
       </c>
-      <c r="K70" s="11" t="s">
-        <v>31</v>
+      <c r="J70" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="11">
+        <v>677608</v>
       </c>
       <c r="L70" s="11">
-        <v>677608</v>
+        <v>677894</v>
       </c>
       <c r="M70" s="11">
-        <v>677894</v>
+        <v>780653</v>
       </c>
       <c r="N70" s="11">
-        <v>780653</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>760795</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>34</v>
       </c>
@@ -2756,37 +2756,37 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>3339</v>
+        <v>2977</v>
       </c>
       <c r="F71" s="9">
-        <v>2977</v>
+        <v>8265</v>
       </c>
       <c r="G71" s="9">
-        <v>8265</v>
+        <v>12319</v>
       </c>
       <c r="H71" s="9">
-        <v>12319</v>
+        <v>12272</v>
       </c>
       <c r="I71" s="9">
-        <v>12272</v>
-      </c>
-      <c r="J71" s="9">
         <v>13009</v>
       </c>
-      <c r="K71" s="9" t="s">
-        <v>31</v>
+      <c r="J71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="9">
+        <v>23249</v>
       </c>
       <c r="L71" s="9">
-        <v>23249</v>
+        <v>17697</v>
       </c>
       <c r="M71" s="9">
-        <v>17697</v>
+        <v>13704</v>
       </c>
       <c r="N71" s="9">
-        <v>13704</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9141</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>36</v>
       </c>
@@ -2795,74 +2795,74 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>11330</v>
+        <v>12728</v>
       </c>
       <c r="F72" s="11">
-        <v>12728</v>
+        <v>15998</v>
       </c>
       <c r="G72" s="11">
-        <v>15998</v>
+        <v>17325</v>
       </c>
       <c r="H72" s="11">
-        <v>17325</v>
+        <v>39321</v>
       </c>
       <c r="I72" s="11">
-        <v>39321</v>
-      </c>
-      <c r="J72" s="11">
         <v>38312</v>
       </c>
-      <c r="K72" s="11" t="s">
-        <v>31</v>
+      <c r="J72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" s="11">
+        <v>36904</v>
       </c>
       <c r="L72" s="11">
-        <v>36904</v>
+        <v>25327</v>
       </c>
       <c r="M72" s="11">
-        <v>25327</v>
+        <v>86559</v>
       </c>
       <c r="N72" s="11">
-        <v>86559</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>94909</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
-        <v>83424</v>
+        <v>150643</v>
       </c>
       <c r="F73" s="15">
-        <v>150643</v>
+        <v>59898</v>
       </c>
       <c r="G73" s="15">
-        <v>59898</v>
+        <v>601887</v>
       </c>
       <c r="H73" s="15">
-        <v>601887</v>
+        <v>649131</v>
       </c>
       <c r="I73" s="15">
-        <v>649131</v>
+        <v>873403</v>
       </c>
       <c r="J73" s="15">
-        <v>873403</v>
+        <v>0</v>
       </c>
       <c r="K73" s="15">
-        <v>0</v>
+        <v>741278</v>
       </c>
       <c r="L73" s="15">
-        <v>741278</v>
+        <v>727404</v>
       </c>
       <c r="M73" s="15">
-        <v>727404</v>
+        <v>882451</v>
       </c>
       <c r="N73" s="15">
-        <v>882451</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>873445</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2877,7 +2877,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2892,7 +2892,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2907,7 +2907,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>42</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2959,7 +2959,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>29</v>
       </c>
@@ -2976,29 +2976,29 @@
       <c r="G79" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>31</v>
+      <c r="H79" s="9">
+        <v>8349</v>
       </c>
       <c r="I79" s="9">
-        <v>8349</v>
+        <v>6750</v>
       </c>
       <c r="J79" s="9">
-        <v>6750</v>
+        <v>3017</v>
       </c>
       <c r="K79" s="9">
-        <v>3017</v>
+        <v>10547</v>
       </c>
       <c r="L79" s="9">
-        <v>10547</v>
+        <v>2732</v>
       </c>
       <c r="M79" s="9">
-        <v>2732</v>
+        <v>15259</v>
       </c>
       <c r="N79" s="9">
-        <v>15259</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>32</v>
       </c>
@@ -3007,37 +3007,37 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>205418</v>
+        <v>60163</v>
       </c>
       <c r="F80" s="11">
-        <v>60163</v>
+        <v>557749</v>
       </c>
       <c r="G80" s="11">
-        <v>557749</v>
+        <v>269580</v>
       </c>
       <c r="H80" s="11">
-        <v>269580</v>
+        <v>514165</v>
       </c>
       <c r="I80" s="11">
-        <v>514165</v>
+        <v>314787</v>
       </c>
       <c r="J80" s="11">
-        <v>314787</v>
+        <v>81706</v>
       </c>
       <c r="K80" s="11">
-        <v>81706</v>
+        <v>342981</v>
       </c>
       <c r="L80" s="11">
-        <v>342981</v>
+        <v>398939</v>
       </c>
       <c r="M80" s="11">
-        <v>398939</v>
+        <v>356042</v>
       </c>
       <c r="N80" s="11">
-        <v>356042</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>411351</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>34</v>
       </c>
@@ -3046,25 +3046,25 @@
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <v>4587</v>
+        <v>12140</v>
       </c>
       <c r="F81" s="9">
-        <v>12140</v>
+        <v>12632</v>
       </c>
       <c r="G81" s="9">
-        <v>12632</v>
+        <v>9976</v>
       </c>
       <c r="H81" s="9">
-        <v>9976</v>
+        <v>6794</v>
       </c>
       <c r="I81" s="9">
-        <v>6794</v>
+        <v>0</v>
       </c>
       <c r="J81" s="9">
-        <v>0</v>
+        <v>19114</v>
       </c>
       <c r="K81" s="9">
-        <v>19114</v>
+        <v>0</v>
       </c>
       <c r="L81" s="9">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="N81" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>36</v>
       </c>
@@ -3085,74 +3085,74 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>6813</v>
+        <v>8583</v>
       </c>
       <c r="F82" s="11">
-        <v>8583</v>
+        <v>7049</v>
       </c>
       <c r="G82" s="11">
-        <v>7049</v>
+        <v>28736</v>
       </c>
       <c r="H82" s="11">
-        <v>28736</v>
+        <v>10891</v>
       </c>
       <c r="I82" s="11">
-        <v>10891</v>
+        <v>15395</v>
       </c>
       <c r="J82" s="11">
-        <v>15395</v>
+        <v>6156</v>
       </c>
       <c r="K82" s="11">
-        <v>6156</v>
+        <v>3391</v>
       </c>
       <c r="L82" s="11">
-        <v>3391</v>
+        <v>73257</v>
       </c>
       <c r="M82" s="11">
-        <v>73257</v>
+        <v>21875</v>
       </c>
       <c r="N82" s="11">
-        <v>21875</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>216818</v>
+        <v>80886</v>
       </c>
       <c r="F83" s="15">
-        <v>80886</v>
+        <v>577430</v>
       </c>
       <c r="G83" s="15">
-        <v>577430</v>
+        <v>308292</v>
       </c>
       <c r="H83" s="15">
-        <v>308292</v>
+        <v>540199</v>
       </c>
       <c r="I83" s="15">
-        <v>540199</v>
+        <v>336932</v>
       </c>
       <c r="J83" s="15">
-        <v>336932</v>
+        <v>109993</v>
       </c>
       <c r="K83" s="15">
-        <v>109993</v>
+        <v>356919</v>
       </c>
       <c r="L83" s="15">
-        <v>356919</v>
+        <v>474928</v>
       </c>
       <c r="M83" s="15">
-        <v>474928</v>
+        <v>393176</v>
       </c>
       <c r="N83" s="15">
-        <v>393176</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>421832</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3167,7 +3167,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3182,7 +3182,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3197,7 +3197,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>43</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3249,7 +3249,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>29</v>
       </c>
@@ -3266,29 +3266,29 @@
       <c r="G89" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H89" s="9" t="s">
-        <v>31</v>
+      <c r="H89" s="9">
+        <v>11474</v>
       </c>
       <c r="I89" s="9">
-        <v>11474</v>
+        <v>4991</v>
       </c>
       <c r="J89" s="9">
-        <v>4991</v>
+        <v>5596</v>
       </c>
       <c r="K89" s="9">
-        <v>5596</v>
+        <v>7578</v>
       </c>
       <c r="L89" s="9">
-        <v>7578</v>
+        <v>7729</v>
       </c>
       <c r="M89" s="9">
-        <v>7729</v>
+        <v>8194</v>
       </c>
       <c r="N89" s="9">
-        <v>8194</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6803</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>32</v>
       </c>
@@ -3297,37 +3297,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>139235</v>
+        <v>159466</v>
       </c>
       <c r="F90" s="11">
-        <v>159466</v>
+        <v>21178</v>
       </c>
       <c r="G90" s="11">
-        <v>21178</v>
+        <v>244285</v>
       </c>
       <c r="H90" s="11">
-        <v>244285</v>
+        <v>293959</v>
       </c>
       <c r="I90" s="11">
-        <v>293959</v>
+        <v>303394</v>
       </c>
       <c r="J90" s="11">
-        <v>303394</v>
+        <v>233236</v>
       </c>
       <c r="K90" s="11">
-        <v>233236</v>
+        <v>342695</v>
       </c>
       <c r="L90" s="11">
-        <v>342695</v>
+        <v>270353</v>
       </c>
       <c r="M90" s="11">
-        <v>270353</v>
+        <v>401726</v>
       </c>
       <c r="N90" s="11">
-        <v>401726</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>232081</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>34</v>
       </c>
@@ -3336,37 +3336,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>4949</v>
+        <v>6852</v>
       </c>
       <c r="F91" s="9">
-        <v>6852</v>
+        <v>8578</v>
       </c>
       <c r="G91" s="9">
-        <v>8578</v>
+        <v>10023</v>
       </c>
       <c r="H91" s="9">
-        <v>10023</v>
+        <v>-1405</v>
       </c>
       <c r="I91" s="9">
-        <v>-1405</v>
+        <v>4442</v>
       </c>
       <c r="J91" s="9">
-        <v>4442</v>
+        <v>4432</v>
       </c>
       <c r="K91" s="9">
-        <v>4432</v>
+        <v>5552</v>
       </c>
       <c r="L91" s="9">
-        <v>5552</v>
+        <v>3993</v>
       </c>
       <c r="M91" s="9">
-        <v>3993</v>
+        <v>4563</v>
       </c>
       <c r="N91" s="9">
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>36</v>
       </c>
@@ -3375,74 +3375,74 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>5416</v>
+        <v>5312</v>
       </c>
       <c r="F92" s="11">
-        <v>5312</v>
+        <v>5685</v>
       </c>
       <c r="G92" s="11">
-        <v>5685</v>
+        <v>6740</v>
       </c>
       <c r="H92" s="11">
-        <v>6740</v>
+        <v>11846</v>
       </c>
       <c r="I92" s="11">
-        <v>11846</v>
+        <v>-1289</v>
       </c>
       <c r="J92" s="11">
-        <v>-1289</v>
+        <v>24248</v>
       </c>
       <c r="K92" s="11">
-        <v>24248</v>
+        <v>14968</v>
       </c>
       <c r="L92" s="11">
-        <v>14968</v>
+        <v>12025</v>
       </c>
       <c r="M92" s="11">
-        <v>12025</v>
+        <v>13525</v>
       </c>
       <c r="N92" s="11">
-        <v>13525</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11118</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>149600</v>
+        <v>171630</v>
       </c>
       <c r="F93" s="15">
-        <v>171630</v>
+        <v>35441</v>
       </c>
       <c r="G93" s="15">
-        <v>35441</v>
+        <v>261048</v>
       </c>
       <c r="H93" s="15">
-        <v>261048</v>
+        <v>315874</v>
       </c>
       <c r="I93" s="15">
-        <v>315874</v>
+        <v>311538</v>
       </c>
       <c r="J93" s="15">
-        <v>311538</v>
+        <v>267512</v>
       </c>
       <c r="K93" s="15">
-        <v>267512</v>
+        <v>370793</v>
       </c>
       <c r="L93" s="15">
-        <v>370793</v>
+        <v>294100</v>
       </c>
       <c r="M93" s="15">
-        <v>294100</v>
+        <v>428008</v>
       </c>
       <c r="N93" s="15">
-        <v>428008</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>254016</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3457,7 +3457,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3472,7 +3472,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3487,7 +3487,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>44</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3539,7 +3539,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>29</v>
       </c>
@@ -3556,29 +3556,29 @@
       <c r="G99" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H99" s="9" t="s">
-        <v>31</v>
+      <c r="H99" s="9">
+        <v>4337</v>
       </c>
       <c r="I99" s="9">
-        <v>4337</v>
+        <v>6096</v>
       </c>
       <c r="J99" s="9">
-        <v>6096</v>
+        <v>3517</v>
       </c>
       <c r="K99" s="9">
-        <v>3517</v>
+        <v>6486</v>
       </c>
       <c r="L99" s="9">
-        <v>6486</v>
+        <v>1535</v>
       </c>
       <c r="M99" s="9">
-        <v>1535</v>
+        <v>8600</v>
       </c>
       <c r="N99" s="9">
-        <v>8600</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6610</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>32</v>
       </c>
@@ -3587,37 +3587,37 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>134938</v>
+        <v>35635</v>
       </c>
       <c r="F100" s="11">
-        <v>35635</v>
+        <v>572205</v>
       </c>
       <c r="G100" s="11">
-        <v>572205</v>
+        <v>597538</v>
       </c>
       <c r="H100" s="11">
-        <v>597538</v>
+        <v>817745</v>
       </c>
       <c r="I100" s="11">
-        <v>817745</v>
+        <v>829138</v>
       </c>
       <c r="J100" s="11">
-        <v>829138</v>
+        <v>677608</v>
       </c>
       <c r="K100" s="11">
-        <v>677608</v>
+        <v>677894</v>
       </c>
       <c r="L100" s="11">
-        <v>677894</v>
+        <v>806479</v>
       </c>
       <c r="M100" s="11">
-        <v>806479</v>
+        <v>760795</v>
       </c>
       <c r="N100" s="11">
-        <v>760795</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>940065</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>34</v>
       </c>
@@ -3626,37 +3626,37 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>2977</v>
+        <v>8265</v>
       </c>
       <c r="F101" s="9">
-        <v>8265</v>
+        <v>12320</v>
       </c>
       <c r="G101" s="9">
-        <v>12320</v>
+        <v>12272</v>
       </c>
       <c r="H101" s="9">
-        <v>12272</v>
+        <v>13009</v>
       </c>
       <c r="I101" s="9">
-        <v>13009</v>
+        <v>8567</v>
       </c>
       <c r="J101" s="9">
-        <v>8567</v>
+        <v>23249</v>
       </c>
       <c r="K101" s="9">
-        <v>23249</v>
+        <v>17697</v>
       </c>
       <c r="L101" s="9">
-        <v>17697</v>
+        <v>13704</v>
       </c>
       <c r="M101" s="9">
-        <v>13704</v>
+        <v>9141</v>
       </c>
       <c r="N101" s="9">
-        <v>9141</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>36</v>
       </c>
@@ -3665,74 +3665,74 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>12728</v>
+        <v>15998</v>
       </c>
       <c r="F102" s="11">
-        <v>15998</v>
+        <v>17362</v>
       </c>
       <c r="G102" s="11">
-        <v>17362</v>
+        <v>39321</v>
       </c>
       <c r="H102" s="11">
-        <v>39321</v>
+        <v>38312</v>
       </c>
       <c r="I102" s="11">
-        <v>38312</v>
+        <v>54996</v>
       </c>
       <c r="J102" s="11">
-        <v>54996</v>
+        <v>36904</v>
       </c>
       <c r="K102" s="11">
-        <v>36904</v>
+        <v>25327</v>
       </c>
       <c r="L102" s="11">
-        <v>25327</v>
+        <v>86559</v>
       </c>
       <c r="M102" s="11">
-        <v>86559</v>
+        <v>94909</v>
       </c>
       <c r="N102" s="11">
-        <v>94909</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>85847</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
-        <v>150643</v>
+        <v>59898</v>
       </c>
       <c r="F103" s="15">
-        <v>59898</v>
+        <v>601887</v>
       </c>
       <c r="G103" s="15">
-        <v>601887</v>
+        <v>649131</v>
       </c>
       <c r="H103" s="15">
-        <v>649131</v>
+        <v>873403</v>
       </c>
       <c r="I103" s="15">
-        <v>873403</v>
+        <v>898797</v>
       </c>
       <c r="J103" s="15">
-        <v>898797</v>
+        <v>741278</v>
       </c>
       <c r="K103" s="15">
-        <v>741278</v>
+        <v>727404</v>
       </c>
       <c r="L103" s="15">
-        <v>727404</v>
+        <v>908277</v>
       </c>
       <c r="M103" s="15">
-        <v>908277</v>
+        <v>873445</v>
       </c>
       <c r="N103" s="15">
-        <v>873445</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1041261</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3747,7 +3747,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3762,7 +3762,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3777,7 +3777,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>45</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3829,7 +3829,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>29</v>
       </c>
@@ -3849,26 +3849,26 @@
       <c r="H109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I109" s="9" t="s">
-        <v>31</v>
+      <c r="I109" s="9">
+        <v>102227</v>
       </c>
       <c r="J109" s="9">
-        <v>102227</v>
+        <v>102900</v>
       </c>
       <c r="K109" s="9">
-        <v>102900</v>
+        <v>102474</v>
       </c>
       <c r="L109" s="9">
-        <v>102474</v>
+        <v>100522</v>
       </c>
       <c r="M109" s="9">
-        <v>100522</v>
+        <v>63109</v>
       </c>
       <c r="N109" s="9">
-        <v>63109</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>125709</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>32</v>
       </c>
@@ -3877,37 +3877,37 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>381</v>
+        <v>521</v>
       </c>
       <c r="F110" s="11">
-        <v>521</v>
+        <v>205</v>
       </c>
       <c r="G110" s="11">
-        <v>205</v>
+        <v>1615</v>
       </c>
       <c r="H110" s="11">
-        <v>1615</v>
+        <v>1895</v>
       </c>
       <c r="I110" s="11">
-        <v>1895</v>
+        <v>2006</v>
       </c>
       <c r="J110" s="11">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="K110" s="11">
-        <v>2007</v>
+        <v>2049</v>
       </c>
       <c r="L110" s="11">
-        <v>2049</v>
+        <v>2197</v>
       </c>
       <c r="M110" s="11">
-        <v>2197</v>
+        <v>2331</v>
       </c>
       <c r="N110" s="11">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>34</v>
       </c>
@@ -3915,38 +3915,38 @@
         <v>48</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="9">
-        <v>109832</v>
+      <c r="E111" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G111" s="9" t="s">
-        <v>31</v>
+      <c r="G111" s="9">
+        <v>175649</v>
       </c>
       <c r="H111" s="9">
-        <v>175649</v>
+        <v>399687</v>
       </c>
       <c r="I111" s="9">
-        <v>399687</v>
+        <v>833056</v>
       </c>
       <c r="J111" s="9">
-        <v>833056</v>
+        <v>832961</v>
       </c>
       <c r="K111" s="9">
-        <v>832961</v>
+        <v>882985</v>
       </c>
       <c r="L111" s="9">
-        <v>882985</v>
+        <v>882952</v>
       </c>
       <c r="M111" s="9">
-        <v>882952</v>
+        <v>882990</v>
       </c>
       <c r="N111" s="9">
-        <v>882990</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>882932</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>36</v>
       </c>
@@ -3955,37 +3955,37 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>608</v>
+        <v>864</v>
       </c>
       <c r="F112" s="11">
-        <v>864</v>
+        <v>937</v>
       </c>
       <c r="G112" s="11">
-        <v>937</v>
+        <v>1078</v>
       </c>
       <c r="H112" s="11">
-        <v>1078</v>
+        <v>1598</v>
       </c>
       <c r="I112" s="11">
-        <v>1598</v>
+        <v>1556</v>
       </c>
       <c r="J112" s="11">
-        <v>1556</v>
+        <v>2081</v>
       </c>
       <c r="K112" s="11">
-        <v>2081</v>
+        <v>1901</v>
       </c>
       <c r="L112" s="11">
-        <v>1901</v>
+        <v>1811</v>
       </c>
       <c r="M112" s="11">
-        <v>1811</v>
+        <v>2519</v>
       </c>
       <c r="N112" s="11">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4000,7 +4000,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4015,7 +4015,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4030,7 +4030,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
         <v>49</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4082,7 +4082,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>29</v>
       </c>
@@ -4099,29 +4099,29 @@
       <c r="G118" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H118" s="9" t="s">
-        <v>31</v>
+      <c r="H118" s="9">
+        <v>113756</v>
       </c>
       <c r="I118" s="9">
-        <v>113756</v>
+        <v>116617</v>
       </c>
       <c r="J118" s="9">
-        <v>116617</v>
+        <v>134280</v>
       </c>
       <c r="K118" s="9">
-        <v>134280</v>
+        <v>130334</v>
       </c>
       <c r="L118" s="9">
-        <v>130334</v>
+        <v>589937</v>
       </c>
       <c r="M118" s="9">
-        <v>589937</v>
+        <v>171503</v>
       </c>
       <c r="N118" s="9">
-        <v>171503</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>67886</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>32</v>
       </c>
@@ -4130,37 +4130,37 @@
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
-        <v>904</v>
+        <v>723</v>
       </c>
       <c r="F119" s="11">
-        <v>723</v>
+        <v>1912</v>
       </c>
       <c r="G119" s="11">
-        <v>1912</v>
+        <v>2489</v>
       </c>
       <c r="H119" s="11">
-        <v>2489</v>
+        <v>2183</v>
       </c>
       <c r="I119" s="11">
-        <v>2183</v>
+        <v>1901</v>
       </c>
       <c r="J119" s="11">
-        <v>1901</v>
+        <v>3257</v>
       </c>
       <c r="K119" s="11">
-        <v>3257</v>
+        <v>2378</v>
       </c>
       <c r="L119" s="11">
-        <v>2378</v>
+        <v>2545</v>
       </c>
       <c r="M119" s="11">
-        <v>2545</v>
+        <v>2534</v>
       </c>
       <c r="N119" s="11">
-        <v>2534</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>34</v>
       </c>
@@ -4169,37 +4169,37 @@
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
-        <v>101480</v>
+        <v>81638</v>
       </c>
       <c r="F120" s="9">
-        <v>81638</v>
+        <v>56734</v>
       </c>
       <c r="G120" s="9">
-        <v>56734</v>
+        <v>671830</v>
       </c>
       <c r="H120" s="9">
-        <v>671830</v>
-      </c>
-      <c r="I120" s="9">
         <v>1342422</v>
       </c>
-      <c r="J120" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K120" s="9">
+      <c r="I120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" s="9">
         <v>900033</v>
       </c>
+      <c r="K120" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="L120" s="9" t="s">
         <v>31</v>
       </c>
       <c r="M120" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N120" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N120" s="9">
+        <v>1099878</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>36</v>
       </c>
@@ -4208,37 +4208,37 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>2615</v>
+        <v>1000</v>
       </c>
       <c r="F121" s="11">
-        <v>1000</v>
+        <v>1510</v>
       </c>
       <c r="G121" s="11">
-        <v>1510</v>
+        <v>2005</v>
       </c>
       <c r="H121" s="11">
-        <v>2005</v>
+        <v>1391</v>
       </c>
       <c r="I121" s="11">
-        <v>1391</v>
+        <v>32852</v>
       </c>
       <c r="J121" s="11">
-        <v>32852</v>
+        <v>805</v>
       </c>
       <c r="K121" s="11">
-        <v>805</v>
+        <v>2245</v>
       </c>
       <c r="L121" s="11">
-        <v>2245</v>
+        <v>2731</v>
       </c>
       <c r="M121" s="11">
-        <v>2731</v>
+        <v>4371</v>
       </c>
       <c r="N121" s="11">
-        <v>4371</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4253,7 +4253,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4268,7 +4268,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4283,7 +4283,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>50</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4335,7 +4335,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>29</v>
       </c>
@@ -4352,29 +4352,29 @@
       <c r="G127" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H127" s="9" t="s">
-        <v>31</v>
+      <c r="H127" s="9">
+        <v>121403</v>
       </c>
       <c r="I127" s="9">
-        <v>121403</v>
+        <v>121539</v>
       </c>
       <c r="J127" s="9">
-        <v>121539</v>
+        <v>118086</v>
       </c>
       <c r="K127" s="9">
-        <v>118086</v>
+        <v>149406</v>
       </c>
       <c r="L127" s="9">
-        <v>149406</v>
+        <v>172403</v>
       </c>
       <c r="M127" s="9">
-        <v>172403</v>
+        <v>178061</v>
       </c>
       <c r="N127" s="9">
-        <v>178061</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>176577</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>32</v>
       </c>
@@ -4383,37 +4383,37 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>935</v>
+        <v>949</v>
       </c>
       <c r="F128" s="11">
-        <v>949</v>
+        <v>205</v>
       </c>
       <c r="G128" s="11">
-        <v>205</v>
+        <v>1658</v>
       </c>
       <c r="H128" s="11">
-        <v>1658</v>
+        <v>2053</v>
       </c>
       <c r="I128" s="11">
-        <v>2053</v>
+        <v>1895</v>
       </c>
       <c r="J128" s="11">
-        <v>1895</v>
+        <v>2170</v>
       </c>
       <c r="K128" s="11">
-        <v>2170</v>
+        <v>2060</v>
       </c>
       <c r="L128" s="11">
-        <v>2060</v>
+        <v>2265</v>
       </c>
       <c r="M128" s="11">
-        <v>2265</v>
+        <v>2815</v>
       </c>
       <c r="N128" s="11">
-        <v>2815</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>34</v>
       </c>
@@ -4422,37 +4422,37 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>91806</v>
+        <v>43308</v>
       </c>
       <c r="F129" s="9">
-        <v>43308</v>
+        <v>41799</v>
       </c>
       <c r="G129" s="9">
-        <v>41799</v>
+        <v>184657</v>
       </c>
       <c r="H129" s="9">
-        <v>184657</v>
+        <v>32649</v>
       </c>
       <c r="I129" s="9">
-        <v>32649</v>
+        <v>833240</v>
       </c>
       <c r="J129" s="9">
-        <v>833240</v>
+        <v>853621</v>
       </c>
       <c r="K129" s="9">
-        <v>853621</v>
+        <v>883092</v>
       </c>
       <c r="L129" s="9">
-        <v>883092</v>
+        <v>882821</v>
       </c>
       <c r="M129" s="9">
-        <v>882821</v>
+        <v>883104</v>
       </c>
       <c r="N129" s="9">
-        <v>883104</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>883168</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>36</v>
       </c>
@@ -4461,37 +4461,37 @@
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>830</v>
+        <v>852</v>
       </c>
       <c r="F130" s="11">
-        <v>852</v>
+        <v>1004</v>
       </c>
       <c r="G130" s="11">
-        <v>1004</v>
+        <v>1161</v>
       </c>
       <c r="H130" s="11">
-        <v>1161</v>
+        <v>1537</v>
       </c>
       <c r="I130" s="11">
-        <v>1537</v>
+        <v>569</v>
       </c>
       <c r="J130" s="11">
-        <v>569</v>
+        <v>1654</v>
       </c>
       <c r="K130" s="11">
-        <v>1654</v>
+        <v>2157</v>
       </c>
       <c r="L130" s="11">
-        <v>2157</v>
+        <v>1868</v>
       </c>
       <c r="M130" s="11">
-        <v>1868</v>
+        <v>2027</v>
       </c>
       <c r="N130" s="11">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4506,7 +4506,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4521,7 +4521,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4536,7 +4536,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
         <v>51</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4588,7 +4588,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>29</v>
       </c>
@@ -4605,29 +4605,29 @@
       <c r="G136" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H136" s="9" t="s">
-        <v>31</v>
+      <c r="H136" s="9">
+        <v>102227</v>
       </c>
       <c r="I136" s="9">
-        <v>102227</v>
+        <v>102900</v>
       </c>
       <c r="J136" s="9">
-        <v>102900</v>
+        <v>102474</v>
       </c>
       <c r="K136" s="9">
-        <v>102474</v>
+        <v>100522</v>
       </c>
       <c r="L136" s="9">
-        <v>100522</v>
+        <v>63109</v>
       </c>
       <c r="M136" s="9">
-        <v>63109</v>
+        <v>125709</v>
       </c>
       <c r="N136" s="9">
-        <v>125709</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>65586</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>32</v>
       </c>
@@ -4644,29 +4644,29 @@
       <c r="G137" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H137" s="11" t="s">
-        <v>31</v>
+      <c r="H137" s="11">
+        <v>2006</v>
       </c>
       <c r="I137" s="11">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="J137" s="11">
-        <v>2007</v>
+        <v>2049</v>
       </c>
       <c r="K137" s="11">
-        <v>2049</v>
+        <v>2197</v>
       </c>
       <c r="L137" s="11">
-        <v>2197</v>
+        <v>2331</v>
       </c>
       <c r="M137" s="11">
-        <v>2331</v>
+        <v>2213</v>
       </c>
       <c r="N137" s="11">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>34</v>
       </c>
@@ -4683,29 +4683,29 @@
       <c r="G138" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H138" s="9" t="s">
-        <v>31</v>
+      <c r="H138" s="9">
+        <v>833056</v>
       </c>
       <c r="I138" s="9">
-        <v>833056</v>
+        <v>832961</v>
       </c>
       <c r="J138" s="9">
-        <v>832961</v>
+        <v>882985</v>
       </c>
       <c r="K138" s="9">
-        <v>882985</v>
+        <v>882952</v>
       </c>
       <c r="L138" s="9">
-        <v>882952</v>
+        <v>882990</v>
       </c>
       <c r="M138" s="9">
-        <v>882990</v>
+        <v>882932</v>
       </c>
       <c r="N138" s="9">
-        <v>882932</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>961175</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>36</v>
       </c>
@@ -4722,29 +4722,29 @@
       <c r="G139" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H139" s="11" t="s">
-        <v>31</v>
+      <c r="H139" s="11">
+        <v>1556</v>
       </c>
       <c r="I139" s="11">
-        <v>1556</v>
+        <v>2081</v>
       </c>
       <c r="J139" s="11">
-        <v>2081</v>
+        <v>1901</v>
       </c>
       <c r="K139" s="11">
-        <v>1901</v>
+        <v>1811</v>
       </c>
       <c r="L139" s="11">
-        <v>1811</v>
+        <v>2519</v>
       </c>
       <c r="M139" s="11">
-        <v>2519</v>
+        <v>2903</v>
       </c>
       <c r="N139" s="11">
-        <v>2903</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4759,7 +4759,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4774,7 +4774,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4789,7 +4789,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>52</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4841,7 +4841,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>53</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>54</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>55</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>56</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>57</v>
       </c>
@@ -5026,118 +5026,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
+        <v>2128</v>
+      </c>
+      <c r="F150" s="11">
         <v>1726</v>
       </c>
-      <c r="F150" s="11">
-        <v>2128</v>
-      </c>
       <c r="G150" s="11">
-        <v>1726</v>
+        <v>2785</v>
       </c>
       <c r="H150" s="11">
-        <v>2785</v>
+        <v>2499</v>
       </c>
       <c r="I150" s="11">
-        <v>2499</v>
+        <v>2993</v>
       </c>
       <c r="J150" s="11">
-        <v>2993</v>
+        <v>2874</v>
       </c>
       <c r="K150" s="11">
-        <v>2874</v>
+        <v>430</v>
       </c>
       <c r="L150" s="11">
-        <v>430</v>
+        <v>7075</v>
       </c>
       <c r="M150" s="11">
-        <v>7075</v>
+        <v>6605</v>
       </c>
       <c r="N150" s="11">
-        <v>6605</v>
-      </c>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-613</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9">
-        <v>7165</v>
+        <v>4605</v>
       </c>
       <c r="F151" s="9">
-        <v>4605</v>
+        <v>11227</v>
       </c>
       <c r="G151" s="9">
-        <v>11227</v>
+        <v>13076</v>
       </c>
       <c r="H151" s="9">
-        <v>13076</v>
+        <v>10080</v>
       </c>
       <c r="I151" s="9">
-        <v>10080</v>
+        <v>9485</v>
       </c>
       <c r="J151" s="9">
-        <v>9485</v>
+        <v>9471</v>
       </c>
       <c r="K151" s="9">
-        <v>9471</v>
+        <v>27189</v>
       </c>
       <c r="L151" s="9">
-        <v>27189</v>
+        <v>4992</v>
       </c>
       <c r="M151" s="9">
-        <v>4992</v>
+        <v>12670</v>
       </c>
       <c r="N151" s="9">
-        <v>12670</v>
-      </c>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12608</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
       <c r="E152" s="11">
-        <v>31014</v>
+        <v>32180</v>
       </c>
       <c r="F152" s="11">
-        <v>32180</v>
+        <v>26155</v>
       </c>
       <c r="G152" s="11">
-        <v>26155</v>
+        <v>44936</v>
       </c>
       <c r="H152" s="11">
-        <v>44936</v>
+        <v>40022</v>
       </c>
       <c r="I152" s="11">
-        <v>40022</v>
+        <v>73163</v>
       </c>
       <c r="J152" s="11">
-        <v>73163</v>
+        <v>11024</v>
       </c>
       <c r="K152" s="11">
-        <v>11024</v>
+        <v>73239</v>
       </c>
       <c r="L152" s="11">
-        <v>73239</v>
+        <v>60328</v>
       </c>
       <c r="M152" s="11">
-        <v>60328</v>
+        <v>68459</v>
       </c>
       <c r="N152" s="11">
-        <v>68459</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+        <v>53131</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>61</v>
       </c>
@@ -5174,81 +5174,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11">
-        <v>6730</v>
+        <v>12656</v>
       </c>
       <c r="F154" s="11">
-        <v>12656</v>
+        <v>23632</v>
       </c>
       <c r="G154" s="11">
-        <v>23632</v>
+        <v>15174</v>
       </c>
       <c r="H154" s="11">
-        <v>15174</v>
+        <v>21673</v>
       </c>
       <c r="I154" s="11">
-        <v>21673</v>
+        <v>-11922</v>
       </c>
       <c r="J154" s="11">
-        <v>-11922</v>
+        <v>73938</v>
       </c>
       <c r="K154" s="11">
-        <v>73938</v>
+        <v>17150</v>
       </c>
       <c r="L154" s="11">
-        <v>17150</v>
+        <v>40761</v>
       </c>
       <c r="M154" s="11">
-        <v>40761</v>
+        <v>39526</v>
       </c>
       <c r="N154" s="11">
-        <v>39526</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>47480</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
       <c r="E155" s="15">
-        <v>46635</v>
+        <v>51569</v>
       </c>
       <c r="F155" s="15">
-        <v>51569</v>
+        <v>62740</v>
       </c>
       <c r="G155" s="15">
-        <v>62740</v>
+        <v>75971</v>
       </c>
       <c r="H155" s="15">
-        <v>75971</v>
+        <v>74274</v>
       </c>
       <c r="I155" s="15">
-        <v>74274</v>
+        <v>73719</v>
       </c>
       <c r="J155" s="15">
-        <v>73719</v>
+        <v>97307</v>
       </c>
       <c r="K155" s="15">
-        <v>97307</v>
+        <v>118008</v>
       </c>
       <c r="L155" s="15">
-        <v>118008</v>
+        <v>113156</v>
       </c>
       <c r="M155" s="15">
-        <v>113156</v>
+        <v>127260</v>
       </c>
       <c r="N155" s="15">
-        <v>127260</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>112606</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5263,7 +5263,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -5278,7 +5278,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5293,7 +5293,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B159" s="7" t="s">
         <v>63</v>
       </c>
@@ -5310,7 +5310,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>64</v>
       </c>
@@ -5321,7 +5321,7 @@
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>66</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>68</v>
       </c>
@@ -5343,7 +5343,7 @@
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>70</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>72</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>73</v>
       </c>
@@ -5376,7 +5376,7 @@
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>74</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>76</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>78</v>
       </c>
@@ -5409,7 +5409,7 @@
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>79</v>
       </c>
